--- a/medicine/Pharmacie/Programme_national_de_toxicologie/Programme_national_de_toxicologie.xlsx
+++ b/medicine/Pharmacie/Programme_national_de_toxicologie/Programme_national_de_toxicologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Programme national de toxicologie (ou National Toxicology Program ou “NTP”) est un programme fédéral des États-Unis, fonctionnant comme un consortium inter-agences et piloté par le département de la Santé et des Services sociaux des États-Unis.
@@ -512,9 +524,11 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le NTP doit, au service de la santé publique coordonner, évaluer et diffuser les travaux réalisés par différentes agences d'État en matière de toxicologie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le NTP doit, au service de la santé publique coordonner, évaluer et diffuser les travaux réalisés par différentes agences d'État en matière de toxicologie.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le National Toxicology Program a son siège et quartier général au NIEHS (National Institute of Environmental Health Sciences)[1].
-Le programme PNT est actuellement dirigé par la Dr Lien, assistée du Dr John R. Bucher[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le National Toxicology Program a son siège et quartier général au NIEHS (National Institute of Environmental Health Sciences).
+Le programme PNT est actuellement dirigé par la Dr Lien, assistée du Dr John R. Bucher.
 Il publie régulièrement des rapports concernant le caractère toxique, cancérigène ou mutagène de produits chimiques, mais aussi d’exposition à la radioactivité ou aux ondes utilisées dans le domaine des télécommunications, dont pour les téléphones portables.
 La NTP travaille en lien avec deux agences :
 States Department of Health and Human Services,
@@ -584,11 +600,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le programme a débuté en 1978 à l’initiative de Joseph A. Califano, ensuite devenu “United States Secretary of Health, Education, and Welfare » (puis plus connu comme “Secretary of Health and Human Services”).
 Il a d’abord cherché à apporter des réponses sur la toxicité des produits chimiques retrouvés dans l’environnement.
-En octobre 1981, le secrétaire Richard S. Schwiker a rendu ce programme permanent[2].
+En octobre 1981, le secrétaire Richard S. Schwiker a rendu ce programme permanent.
 </t>
         </is>
       </c>
@@ -617,7 +635,9 @@
           <t>Centre inter-agences pour l’évaluation des méthodes nouvelles ou alternatives de toxicologie (NICEATM)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ce Centre soutient le développement et l'évaluation de méthodes nouvelles, révisées ou alternatives aux tests de sécurité chimique en vigueur ; il s'agit notamment d'utiliser moins d'animaux de laboratoires et de les faire moins souffrir.
 Une loi de 1993 a chargé le NIEHS d'établir des critères de validation et d'acceptation réglementaire des méthodes alternatives de tests et des protocoles pour leur mise en œuvre ultérieure.
